--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adam23-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adam23-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Adam23</t>
+  </si>
+  <si>
+    <t>Itgb3</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Adam23</t>
-  </si>
-  <si>
-    <t>Itgb3</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.03428566666666667</v>
+        <v>0.2328916666666666</v>
       </c>
       <c r="H2">
-        <v>0.102857</v>
+        <v>0.6986749999999999</v>
       </c>
       <c r="I2">
-        <v>0.001795213220862138</v>
+        <v>0.01421300418632399</v>
       </c>
       <c r="J2">
-        <v>0.001795213220862138</v>
+        <v>0.01421300418632399</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N2">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O2">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P2">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q2">
-        <v>0.07173563750988889</v>
+        <v>1.713812357072222</v>
       </c>
       <c r="R2">
-        <v>0.645620737589</v>
+        <v>15.42431121365</v>
       </c>
       <c r="S2">
-        <v>0.0002222415661810047</v>
+        <v>0.005602398962941641</v>
       </c>
       <c r="T2">
-        <v>0.0002222415661810047</v>
+        <v>0.005602398962941642</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.03428566666666667</v>
+        <v>0.2328916666666666</v>
       </c>
       <c r="H3">
-        <v>0.102857</v>
+        <v>0.6986749999999999</v>
       </c>
       <c r="I3">
-        <v>0.001795213220862138</v>
+        <v>0.01421300418632399</v>
       </c>
       <c r="J3">
-        <v>0.001795213220862138</v>
+        <v>0.01421300418632399</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>7.405096</v>
       </c>
       <c r="O3">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P3">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q3">
-        <v>0.08462955103022222</v>
+        <v>0.5748617164222222</v>
       </c>
       <c r="R3">
-        <v>0.761665959272</v>
+        <v>5.1737554478</v>
       </c>
       <c r="S3">
-        <v>0.0002621877301021978</v>
+        <v>0.001879204961166579</v>
       </c>
       <c r="T3">
-        <v>0.0002621877301021978</v>
+        <v>0.00187920496116658</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.03428566666666667</v>
+        <v>0.2328916666666666</v>
       </c>
       <c r="H4">
-        <v>0.102857</v>
+        <v>0.6986749999999999</v>
       </c>
       <c r="I4">
-        <v>0.001795213220862138</v>
+        <v>0.01421300418632399</v>
       </c>
       <c r="J4">
-        <v>0.001795213220862138</v>
+        <v>0.01421300418632399</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N4">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O4">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P4">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q4">
-        <v>0.01083204209833333</v>
+        <v>0.0985519126472222</v>
       </c>
       <c r="R4">
-        <v>0.09748837888499999</v>
+        <v>0.8869672138249999</v>
       </c>
       <c r="S4">
-        <v>3.35583551556271E-05</v>
+        <v>0.0003221631183439096</v>
       </c>
       <c r="T4">
-        <v>3.35583551556271E-05</v>
+        <v>0.0003221631183439096</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.03428566666666667</v>
+        <v>0.2328916666666666</v>
       </c>
       <c r="H5">
-        <v>0.102857</v>
+        <v>0.6986749999999999</v>
       </c>
       <c r="I5">
-        <v>0.001795213220862138</v>
+        <v>0.01421300418632399</v>
       </c>
       <c r="J5">
-        <v>0.001795213220862138</v>
+        <v>0.01421300418632399</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N5">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O5">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P5">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q5">
-        <v>0.008985678948444445</v>
+        <v>0.03110640834999999</v>
       </c>
       <c r="R5">
-        <v>0.080871110536</v>
+        <v>0.27995767515</v>
       </c>
       <c r="S5">
-        <v>2.783820471974878E-05</v>
+        <v>0.0001016858754470605</v>
       </c>
       <c r="T5">
-        <v>2.783820471974878E-05</v>
+        <v>0.0001016858754470605</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.03428566666666667</v>
+        <v>0.2328916666666666</v>
       </c>
       <c r="H6">
-        <v>0.102857</v>
+        <v>0.6986749999999999</v>
       </c>
       <c r="I6">
-        <v>0.001795213220862138</v>
+        <v>0.01421300418632399</v>
       </c>
       <c r="J6">
-        <v>0.001795213220862138</v>
+        <v>0.01421300418632399</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N6">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O6">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P6">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q6">
-        <v>0.3871464108673333</v>
+        <v>1.884837361686111</v>
       </c>
       <c r="R6">
-        <v>3.484317697806</v>
+        <v>16.963536255175</v>
       </c>
       <c r="S6">
-        <v>0.001199404196842192</v>
+        <v>0.006161474350939653</v>
       </c>
       <c r="T6">
-        <v>0.001199404196842192</v>
+        <v>0.006161474350939655</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.03428566666666667</v>
+        <v>0.2328916666666666</v>
       </c>
       <c r="H7">
-        <v>0.102857</v>
+        <v>0.6986749999999999</v>
       </c>
       <c r="I7">
-        <v>0.001795213220862138</v>
+        <v>0.01421300418632399</v>
       </c>
       <c r="J7">
-        <v>0.001795213220862138</v>
+        <v>0.01421300418632399</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N7">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O7">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P7">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q7">
-        <v>0.01613368044922222</v>
+        <v>0.04468593328055555</v>
       </c>
       <c r="R7">
-        <v>0.145203124043</v>
+        <v>0.402173399525</v>
       </c>
       <c r="S7">
-        <v>4.998316786136769E-05</v>
+        <v>0.0001460769174851467</v>
       </c>
       <c r="T7">
-        <v>4.99831678613677E-05</v>
+        <v>0.0001460769174851468</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>43.730186</v>
       </c>
       <c r="I8">
-        <v>0.7632441939582174</v>
+        <v>0.8895943273864486</v>
       </c>
       <c r="J8">
-        <v>0.7632441939582175</v>
+        <v>0.8895943273864487</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N8">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O8">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P8">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q8">
-        <v>30.49877763434689</v>
+        <v>107.2678042635942</v>
       </c>
       <c r="R8">
-        <v>274.488998709122</v>
+        <v>965.4102383723481</v>
       </c>
       <c r="S8">
-        <v>0.09448715231852614</v>
+        <v>0.3506550952812754</v>
       </c>
       <c r="T8">
-        <v>0.09448715231852617</v>
+        <v>0.3506550952812755</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>43.730186</v>
       </c>
       <c r="I9">
-        <v>0.7632441939582174</v>
+        <v>0.8895943273864486</v>
       </c>
       <c r="J9">
-        <v>0.7632441939582175</v>
+        <v>0.8895943273864487</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>7.405096</v>
       </c>
       <c r="O9">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P9">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q9">
         <v>35.98069171420622</v>
@@ -1013,10 +1013,10 @@
         <v>323.8262254278561</v>
       </c>
       <c r="S9">
-        <v>0.1114704706951098</v>
+        <v>0.1176197552280206</v>
       </c>
       <c r="T9">
-        <v>0.1114704706951098</v>
+        <v>0.1176197552280207</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>43.730186</v>
       </c>
       <c r="I10">
-        <v>0.7632441939582174</v>
+        <v>0.8895943273864486</v>
       </c>
       <c r="J10">
-        <v>0.7632441939582175</v>
+        <v>0.8895943273864487</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N10">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O10">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P10">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q10">
-        <v>4.605298771303334</v>
+        <v>6.168380821868222</v>
       </c>
       <c r="R10">
-        <v>41.44768894173</v>
+        <v>55.515427396814</v>
       </c>
       <c r="S10">
-        <v>0.01426750841274422</v>
+        <v>0.02016424387235722</v>
       </c>
       <c r="T10">
-        <v>0.01426750841274422</v>
+        <v>0.02016424387235723</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>43.730186</v>
       </c>
       <c r="I11">
-        <v>0.7632441939582174</v>
+        <v>0.8895943273864486</v>
       </c>
       <c r="J11">
-        <v>0.7632441939582175</v>
+        <v>0.8895943273864487</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N11">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O11">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P11">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q11">
-        <v>3.820307920236445</v>
+        <v>1.946955341092</v>
       </c>
       <c r="R11">
-        <v>34.382771282128</v>
+        <v>17.522598069828</v>
       </c>
       <c r="S11">
-        <v>0.01183555684397457</v>
+        <v>0.00636453608168718</v>
       </c>
       <c r="T11">
-        <v>0.01183555684397457</v>
+        <v>0.006364536081687182</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>43.730186</v>
       </c>
       <c r="I12">
-        <v>0.7632441939582174</v>
+        <v>0.8895943273864486</v>
       </c>
       <c r="J12">
-        <v>0.7632441939582175</v>
+        <v>0.8895943273864487</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N12">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O12">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P12">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q12">
-        <v>164.5973006840653</v>
+        <v>117.9722881257851</v>
       </c>
       <c r="R12">
-        <v>1481.375706156588</v>
+        <v>1061.750593132066</v>
       </c>
       <c r="S12">
-        <v>0.5099329031285149</v>
+        <v>0.3856477180388884</v>
       </c>
       <c r="T12">
-        <v>0.509932903128515</v>
+        <v>0.3856477180388885</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>43.730186</v>
       </c>
       <c r="I13">
-        <v>0.7632441939582174</v>
+        <v>0.8895943273864486</v>
       </c>
       <c r="J13">
-        <v>0.7632441939582175</v>
+        <v>0.8895943273864487</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N13">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O13">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P13">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q13">
-        <v>6.859317760668223</v>
+        <v>2.796900095097556</v>
       </c>
       <c r="R13">
-        <v>61.73385984601401</v>
+        <v>25.172100855878</v>
       </c>
       <c r="S13">
-        <v>0.02125060255934775</v>
+        <v>0.009142978884219588</v>
       </c>
       <c r="T13">
-        <v>0.02125060255934776</v>
+        <v>0.009142978884219589</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.005527333333333333</v>
+        <v>1.423796666666667</v>
       </c>
       <c r="H14">
-        <v>0.016582</v>
+        <v>4.27139</v>
       </c>
       <c r="I14">
-        <v>0.0002894137066834145</v>
+        <v>0.08689202268783405</v>
       </c>
       <c r="J14">
-        <v>0.0002894137066834146</v>
+        <v>0.08689202268783405</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N14">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O14">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P14">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q14">
-        <v>0.01156479715711111</v>
+        <v>10.47749091333556</v>
       </c>
       <c r="R14">
-        <v>0.104083174414</v>
+        <v>94.29741822002001</v>
       </c>
       <c r="S14">
-        <v>3.582847691857062E-05</v>
+        <v>0.03425058991135979</v>
       </c>
       <c r="T14">
-        <v>3.582847691857064E-05</v>
+        <v>0.0342505899113598</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.005527333333333333</v>
+        <v>1.423796666666667</v>
       </c>
       <c r="H15">
-        <v>0.016582</v>
+        <v>4.27139</v>
       </c>
       <c r="I15">
-        <v>0.0002894137066834145</v>
+        <v>0.08689202268783405</v>
       </c>
       <c r="J15">
-        <v>0.0002894137066834146</v>
+        <v>0.08689202268783405</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>7.405096</v>
       </c>
       <c r="O15">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P15">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q15">
-        <v>0.01364347798577778</v>
+        <v>3.514450333715556</v>
       </c>
       <c r="R15">
-        <v>0.122791301872</v>
+        <v>31.63005300344</v>
       </c>
       <c r="S15">
-        <v>4.226836229478444E-05</v>
+        <v>0.01148862815912594</v>
       </c>
       <c r="T15">
-        <v>4.226836229478445E-05</v>
+        <v>0.01148862815912595</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.005527333333333333</v>
+        <v>1.423796666666667</v>
       </c>
       <c r="H16">
-        <v>0.016582</v>
+        <v>4.27139</v>
       </c>
       <c r="I16">
-        <v>0.0002894137066834145</v>
+        <v>0.08689202268783405</v>
       </c>
       <c r="J16">
-        <v>0.0002894137066834146</v>
+        <v>0.08689202268783405</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N16">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O16">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P16">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q16">
-        <v>0.001746278056666667</v>
+        <v>0.6025028148455556</v>
       </c>
       <c r="R16">
-        <v>0.01571650251</v>
+        <v>5.42252533361</v>
       </c>
       <c r="S16">
-        <v>5.410080453353767E-06</v>
+        <v>0.00196956284690735</v>
       </c>
       <c r="T16">
-        <v>5.410080453353769E-06</v>
+        <v>0.00196956284690735</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.005527333333333333</v>
+        <v>1.423796666666667</v>
       </c>
       <c r="H17">
-        <v>0.016582</v>
+        <v>4.27139</v>
       </c>
       <c r="I17">
-        <v>0.0002894137066834145</v>
+        <v>0.08689202268783405</v>
       </c>
       <c r="J17">
-        <v>0.0002894137066834146</v>
+        <v>0.08689202268783405</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N17">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O17">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P17">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q17">
-        <v>0.001448618259555555</v>
+        <v>0.19017082558</v>
       </c>
       <c r="R17">
-        <v>0.013037564336</v>
+        <v>1.71153743022</v>
       </c>
       <c r="S17">
-        <v>4.487911475766105E-06</v>
+        <v>0.0006216624775837406</v>
       </c>
       <c r="T17">
-        <v>4.487911475766106E-06</v>
+        <v>0.0006216624775837406</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.005527333333333333</v>
+        <v>1.423796666666667</v>
       </c>
       <c r="H18">
-        <v>0.016582</v>
+        <v>4.27139</v>
       </c>
       <c r="I18">
-        <v>0.0002894137066834145</v>
+        <v>0.08689202268783405</v>
       </c>
       <c r="J18">
-        <v>0.0002894137066834146</v>
+        <v>0.08689202268783405</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N18">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O18">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P18">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q18">
-        <v>0.06241346515066666</v>
+        <v>11.52306216528778</v>
       </c>
       <c r="R18">
-        <v>0.561721186356</v>
+        <v>103.70755948759</v>
       </c>
       <c r="S18">
-        <v>0.0001933608834793667</v>
+        <v>0.03766852961371186</v>
       </c>
       <c r="T18">
-        <v>0.0001933608834793667</v>
+        <v>0.03766852961371187</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.005527333333333333</v>
+        <v>1.423796666666667</v>
       </c>
       <c r="H19">
-        <v>0.016582</v>
+        <v>4.27139</v>
       </c>
       <c r="I19">
-        <v>0.0002894137066834145</v>
+        <v>0.08689202268783405</v>
       </c>
       <c r="J19">
-        <v>0.0002894137066834146</v>
+        <v>0.08689202268783405</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N19">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O19">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P19">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q19">
-        <v>0.002600976979777778</v>
+        <v>0.2731900362188889</v>
       </c>
       <c r="R19">
-        <v>0.023408792818</v>
+        <v>2.45871032597</v>
       </c>
       <c r="S19">
-        <v>8.057992061572854E-06</v>
+        <v>0.0008930496791453552</v>
       </c>
       <c r="T19">
-        <v>8.057992061572857E-06</v>
+        <v>0.0008930496791453552</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.783576333333334</v>
+        <v>0.136948</v>
       </c>
       <c r="H20">
-        <v>11.350729</v>
+        <v>0.410844</v>
       </c>
       <c r="I20">
-        <v>0.1981097909449359</v>
+        <v>0.008357716380185487</v>
       </c>
       <c r="J20">
-        <v>0.1981097909449359</v>
+        <v>0.008357716380185487</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N20">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O20">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P20">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q20">
-        <v>7.91634775481478</v>
+        <v>1.007778329021333</v>
       </c>
       <c r="R20">
-        <v>71.24712979333302</v>
+        <v>9.070004961192</v>
       </c>
       <c r="S20">
-        <v>0.02452534869047463</v>
+        <v>0.003294395819988973</v>
       </c>
       <c r="T20">
-        <v>0.02452534869047463</v>
+        <v>0.003294395819988974</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.783576333333334</v>
+        <v>0.136948</v>
       </c>
       <c r="H21">
-        <v>11.350729</v>
+        <v>0.410844</v>
       </c>
       <c r="I21">
-        <v>0.1981097909449359</v>
+        <v>0.008357716380185487</v>
       </c>
       <c r="J21">
-        <v>0.1981097909449359</v>
+        <v>0.008357716380185487</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>7.405096</v>
       </c>
       <c r="O21">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P21">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q21">
-        <v>9.339248657220447</v>
+        <v>0.3380376956693333</v>
       </c>
       <c r="R21">
-        <v>84.05323791498401</v>
+        <v>3.042339261024</v>
       </c>
       <c r="S21">
-        <v>0.02893358615860067</v>
+        <v>0.001105034648535474</v>
       </c>
       <c r="T21">
-        <v>0.02893358615860068</v>
+        <v>0.001105034648535474</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,14 +1768,14 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
         <v>3</v>
       </c>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.783576333333334</v>
+        <v>0.136948</v>
       </c>
       <c r="H22">
-        <v>11.350729</v>
+        <v>0.410844</v>
       </c>
       <c r="I22">
-        <v>0.1981097909449359</v>
+        <v>0.008357716380185487</v>
       </c>
       <c r="J22">
-        <v>0.1981097909449359</v>
+        <v>0.008357716380185487</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N22">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O22">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P22">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q22">
-        <v>1.195364188871667</v>
+        <v>0.05795178301733332</v>
       </c>
       <c r="R22">
-        <v>10.758277699845</v>
+        <v>0.521566047156</v>
       </c>
       <c r="S22">
-        <v>0.003703314262104436</v>
+        <v>0.0001894425651309768</v>
       </c>
       <c r="T22">
-        <v>0.003703314262104437</v>
+        <v>0.0001894425651309768</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,13 +1830,13 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.783576333333334</v>
+        <v>0.136948</v>
       </c>
       <c r="H23">
-        <v>11.350729</v>
+        <v>0.410844</v>
       </c>
       <c r="I23">
-        <v>0.1981097909449359</v>
+        <v>0.008357716380185487</v>
       </c>
       <c r="J23">
-        <v>0.1981097909449359</v>
+        <v>0.008357716380185487</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N23">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O23">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P23">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q23">
-        <v>0.9916097749768891</v>
+        <v>0.018291596568</v>
       </c>
       <c r="R23">
-        <v>8.924487974792001</v>
+        <v>0.164624369112</v>
       </c>
       <c r="S23">
-        <v>0.003072070132517859</v>
+        <v>5.979465676054265E-05</v>
       </c>
       <c r="T23">
-        <v>0.003072070132517859</v>
+        <v>5.979465676054266E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,13 +1892,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.783576333333334</v>
+        <v>0.136948</v>
       </c>
       <c r="H24">
-        <v>11.350729</v>
+        <v>0.410844</v>
       </c>
       <c r="I24">
-        <v>0.1981097909449359</v>
+        <v>0.008357716380185487</v>
       </c>
       <c r="J24">
-        <v>0.1981097909449359</v>
+        <v>0.008357716380185487</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N24">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O24">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P24">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q24">
-        <v>42.72333427066467</v>
+        <v>1.108346686262667</v>
       </c>
       <c r="R24">
-        <v>384.510008435982</v>
+        <v>9.975120176363999</v>
       </c>
       <c r="S24">
-        <v>0.1323596060532426</v>
+        <v>0.003623150632608081</v>
       </c>
       <c r="T24">
-        <v>0.1323596060532426</v>
+        <v>0.003623150632608082</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,13 +1954,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.783576333333334</v>
+        <v>0.136948</v>
       </c>
       <c r="H25">
-        <v>11.350729</v>
+        <v>0.410844</v>
       </c>
       <c r="I25">
-        <v>0.1981097909449359</v>
+        <v>0.008357716380185487</v>
       </c>
       <c r="J25">
-        <v>0.1981097909449359</v>
+        <v>0.008357716380185487</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N25">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O25">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P25">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q25">
-        <v>1.780423642063445</v>
+        <v>0.02627680620133333</v>
       </c>
       <c r="R25">
-        <v>16.023812778571</v>
+        <v>0.236491255812</v>
       </c>
       <c r="S25">
-        <v>0.005515865647995707</v>
+        <v>8.589805716143791E-05</v>
       </c>
       <c r="T25">
-        <v>0.005515865647995707</v>
+        <v>8.589805716143791E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.068201</v>
+        <v>0.01545066666666667</v>
       </c>
       <c r="H26">
-        <v>0.204603</v>
+        <v>0.046352</v>
       </c>
       <c r="I26">
-        <v>0.00357103561865557</v>
+        <v>0.0009429293592077716</v>
       </c>
       <c r="J26">
-        <v>0.003571035618655571</v>
+        <v>0.0009429293592077717</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N26">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O26">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P26">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q26">
-        <v>0.1426964294256667</v>
+        <v>0.1136989735928889</v>
       </c>
       <c r="R26">
-        <v>1.284267864831</v>
+        <v>1.023290762336</v>
       </c>
       <c r="S26">
-        <v>0.0004420826114443557</v>
+        <v>0.0003716783865606627</v>
       </c>
       <c r="T26">
-        <v>0.0004420826114443558</v>
+        <v>0.0003716783865606628</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.068201</v>
+        <v>0.01545066666666667</v>
       </c>
       <c r="H27">
-        <v>0.204603</v>
+        <v>0.046352</v>
       </c>
       <c r="I27">
-        <v>0.00357103561865557</v>
+        <v>0.0009429293592077716</v>
       </c>
       <c r="J27">
-        <v>0.003571035618655571</v>
+        <v>0.0009429293592077717</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>7.405096</v>
       </c>
       <c r="O27">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P27">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q27">
-        <v>0.1683449840986667</v>
+        <v>0.03813788997688889</v>
       </c>
       <c r="R27">
-        <v>1.515104856888</v>
+        <v>0.3432410097920001</v>
       </c>
       <c r="S27">
-        <v>0.0005215434646363396</v>
+        <v>0.0001246715688410109</v>
       </c>
       <c r="T27">
-        <v>0.0005215434646363396</v>
+        <v>0.000124671568841011</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>27</v>
       </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.068201</v>
+        <v>0.01545066666666667</v>
       </c>
       <c r="H28">
-        <v>0.204603</v>
+        <v>0.046352</v>
       </c>
       <c r="I28">
-        <v>0.00357103561865557</v>
+        <v>0.0009429293592077716</v>
       </c>
       <c r="J28">
-        <v>0.003571035618655571</v>
+        <v>0.0009429293592077717</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N28">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O28">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P28">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q28">
-        <v>0.021547082935</v>
+        <v>0.006538201960888889</v>
       </c>
       <c r="R28">
-        <v>0.193923746415</v>
+        <v>0.058843817648</v>
       </c>
       <c r="S28">
-        <v>6.675423296330605E-05</v>
+        <v>2.137317760257187E-05</v>
       </c>
       <c r="T28">
-        <v>6.675423296330605E-05</v>
+        <v>2.137317760257187E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.068201</v>
+        <v>0.01545066666666667</v>
       </c>
       <c r="H29">
-        <v>0.204603</v>
+        <v>0.046352</v>
       </c>
       <c r="I29">
-        <v>0.00357103561865557</v>
+        <v>0.0009429293592077716</v>
       </c>
       <c r="J29">
-        <v>0.003571035618655571</v>
+        <v>0.0009429293592077717</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N29">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O29">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P29">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q29">
-        <v>0.01787429994933333</v>
+        <v>0.002063683744</v>
       </c>
       <c r="R29">
-        <v>0.160868699544</v>
+        <v>0.018573153696</v>
       </c>
       <c r="S29">
-        <v>5.53757177467237E-05</v>
+        <v>6.746117577875478E-06</v>
       </c>
       <c r="T29">
-        <v>5.537571774672371E-05</v>
+        <v>6.74611757787548E-06</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.068201</v>
+        <v>0.01545066666666667</v>
       </c>
       <c r="H30">
-        <v>0.204603</v>
+        <v>0.046352</v>
       </c>
       <c r="I30">
-        <v>0.00357103561865557</v>
+        <v>0.0009429293592077716</v>
       </c>
       <c r="J30">
-        <v>0.003571035618655571</v>
+        <v>0.0009429293592077717</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N30">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O30">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P30">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q30">
-        <v>0.770111096986</v>
+        <v>0.1250452376124445</v>
       </c>
       <c r="R30">
-        <v>6.930999872874</v>
+        <v>1.125407138512</v>
       </c>
       <c r="S30">
-        <v>0.002385853144525924</v>
+        <v>0.0004087689685687263</v>
       </c>
       <c r="T30">
-        <v>0.002385853144525924</v>
+        <v>0.0004087689685687264</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.068201</v>
+        <v>0.01545066666666667</v>
       </c>
       <c r="H31">
-        <v>0.204603</v>
+        <v>0.046352</v>
       </c>
       <c r="I31">
-        <v>0.00357103561865557</v>
+        <v>0.0009429293592077716</v>
       </c>
       <c r="J31">
-        <v>0.003571035618655571</v>
+        <v>0.0009429293592077717</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N31">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O31">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P31">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q31">
-        <v>0.03209309449966666</v>
+        <v>0.002964586366222223</v>
       </c>
       <c r="R31">
-        <v>0.288837850497</v>
+        <v>0.026681277296</v>
       </c>
       <c r="S31">
-        <v>9.942644733892117E-05</v>
+        <v>9.691140056924211E-06</v>
       </c>
       <c r="T31">
-        <v>9.94264473389212E-05</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>0.6300623333333333</v>
-      </c>
-      <c r="H32">
-        <v>1.890187</v>
-      </c>
-      <c r="I32">
-        <v>0.03299035255064547</v>
-      </c>
-      <c r="J32">
-        <v>0.03299035255064547</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>2.092292333333333</v>
-      </c>
-      <c r="N32">
-        <v>6.276877000000001</v>
-      </c>
-      <c r="O32">
-        <v>0.1237967521619938</v>
-      </c>
-      <c r="P32">
-        <v>0.1237967521619938</v>
-      </c>
-      <c r="Q32">
-        <v>1.318274589555444</v>
-      </c>
-      <c r="R32">
-        <v>11.864471305999</v>
-      </c>
-      <c r="S32">
-        <v>0.004084098498449057</v>
-      </c>
-      <c r="T32">
-        <v>0.004084098498449058</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0.6300623333333333</v>
-      </c>
-      <c r="H33">
-        <v>1.890187</v>
-      </c>
-      <c r="I33">
-        <v>0.03299035255064547</v>
-      </c>
-      <c r="J33">
-        <v>0.03299035255064547</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>2.468365333333333</v>
-      </c>
-      <c r="N33">
-        <v>7.405096</v>
-      </c>
-      <c r="O33">
-        <v>0.1460482393151517</v>
-      </c>
-      <c r="P33">
-        <v>0.1460482393151517</v>
-      </c>
-      <c r="Q33">
-        <v>1.555224021439111</v>
-      </c>
-      <c r="R33">
-        <v>13.997016192952</v>
-      </c>
-      <c r="S33">
-        <v>0.004818182904407896</v>
-      </c>
-      <c r="T33">
-        <v>0.004818182904407896</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0.6300623333333333</v>
-      </c>
-      <c r="H34">
-        <v>1.890187</v>
-      </c>
-      <c r="I34">
-        <v>0.03299035255064547</v>
-      </c>
-      <c r="J34">
-        <v>0.03299035255064547</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>0.315935</v>
-      </c>
-      <c r="N34">
-        <v>0.947805</v>
-      </c>
-      <c r="O34">
-        <v>0.01869324198688273</v>
-      </c>
-      <c r="P34">
-        <v>0.01869324198688273</v>
-      </c>
-      <c r="Q34">
-        <v>0.1990587432816667</v>
-      </c>
-      <c r="R34">
-        <v>1.791528689535</v>
-      </c>
-      <c r="S34">
-        <v>0.0006166966434617897</v>
-      </c>
-      <c r="T34">
-        <v>0.0006166966434617897</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>0.6300623333333333</v>
-      </c>
-      <c r="H35">
-        <v>1.890187</v>
-      </c>
-      <c r="I35">
-        <v>0.03299035255064547</v>
-      </c>
-      <c r="J35">
-        <v>0.03299035255064547</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>0.2620826666666667</v>
-      </c>
-      <c r="N35">
-        <v>0.7862480000000001</v>
-      </c>
-      <c r="O35">
-        <v>0.01550690714408826</v>
-      </c>
-      <c r="P35">
-        <v>0.01550690714408826</v>
-      </c>
-      <c r="Q35">
-        <v>0.1651284164862222</v>
-      </c>
-      <c r="R35">
-        <v>1.486155748376</v>
-      </c>
-      <c r="S35">
-        <v>0.0005115783336535947</v>
-      </c>
-      <c r="T35">
-        <v>0.0005115783336535947</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>0.6300623333333333</v>
-      </c>
-      <c r="H36">
-        <v>1.890187</v>
-      </c>
-      <c r="I36">
-        <v>0.03299035255064547</v>
-      </c>
-      <c r="J36">
-        <v>0.03299035255064547</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>11.291786</v>
-      </c>
-      <c r="N36">
-        <v>33.875358</v>
-      </c>
-      <c r="O36">
-        <v>0.6681123907199095</v>
-      </c>
-      <c r="P36">
-        <v>0.6681123907199095</v>
-      </c>
-      <c r="Q36">
-        <v>7.114529034660666</v>
-      </c>
-      <c r="R36">
-        <v>64.03076131194599</v>
-      </c>
-      <c r="S36">
-        <v>0.02204126331330441</v>
-      </c>
-      <c r="T36">
-        <v>0.02204126331330441</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>0.6300623333333333</v>
-      </c>
-      <c r="H37">
-        <v>1.890187</v>
-      </c>
-      <c r="I37">
-        <v>0.03299035255064547</v>
-      </c>
-      <c r="J37">
-        <v>0.03299035255064547</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>0.4705663333333334</v>
-      </c>
-      <c r="N37">
-        <v>1.411699</v>
-      </c>
-      <c r="O37">
-        <v>0.02784246867197405</v>
-      </c>
-      <c r="P37">
-        <v>0.02784246867197405</v>
-      </c>
-      <c r="Q37">
-        <v>0.2964861219681111</v>
-      </c>
-      <c r="R37">
-        <v>2.668375097713</v>
-      </c>
-      <c r="S37">
-        <v>0.0009185328573687257</v>
-      </c>
-      <c r="T37">
-        <v>0.0009185328573687258</v>
+        <v>9.691140056924211E-06</v>
       </c>
     </row>
   </sheetData>
